--- a/data/GP/30034001/None/5_bc_param/Indata_GP_75_78_samples.xlsx
+++ b/data/GP/30034001/None/5_bc_param/Indata_GP_75_78_samples.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.501764109305985</v>
+        <v>3.505091095013244</v>
       </c>
       <c r="C2">
-        <v>0.9780970957193877</v>
+        <v>1.132385567484159</v>
       </c>
       <c r="D2">
-        <v>1.312841961767507</v>
+        <v>1.920014189727489</v>
       </c>
       <c r="E2">
-        <v>0.04125655014059246</v>
+        <v>0.05502583660363997</v>
       </c>
       <c r="F2">
-        <v>0.9344419274714155</v>
+        <v>1.441762768142674</v>
       </c>
       <c r="G2">
-        <v>1325455.416074682</v>
+        <v>1213701.960785899</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.007524656968074</v>
+        <v>4.698289411497475</v>
       </c>
       <c r="C3">
-        <v>1.227981830625111</v>
+        <v>0.9632915046126981</v>
       </c>
       <c r="D3">
-        <v>1.918738248879341</v>
+        <v>1.808304451189156</v>
       </c>
       <c r="E3">
-        <v>0.03554647120215562</v>
+        <v>0.05153106771881356</v>
       </c>
       <c r="F3">
-        <v>1.135652195006854</v>
+        <v>1.433915211399123</v>
       </c>
       <c r="G3">
-        <v>1630442.005698213</v>
+        <v>1340253.859006034</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.387962411748791</v>
+        <v>2.190885447615789</v>
       </c>
       <c r="C4">
-        <v>0.9359603989773947</v>
+        <v>1.056278896466914</v>
       </c>
       <c r="D4">
-        <v>1.225028357588246</v>
+        <v>1.766349441224117</v>
       </c>
       <c r="E4">
-        <v>0.04470137518483701</v>
+        <v>0.03415602561124707</v>
       </c>
       <c r="F4">
-        <v>0.9675233274006871</v>
+        <v>1.405912135682708</v>
       </c>
       <c r="G4">
-        <v>1415964.134939806</v>
+        <v>1078376.709047263</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.738853136830347</v>
+        <v>1.714599591678583</v>
       </c>
       <c r="C5">
-        <v>1.035842316160983</v>
+        <v>0.9805988591930395</v>
       </c>
       <c r="D5">
-        <v>1.449532349839832</v>
+        <v>2.401444210421405</v>
       </c>
       <c r="E5">
-        <v>0.05716872478494863</v>
+        <v>0.05453886878888804</v>
       </c>
       <c r="F5">
-        <v>1.32870991462949</v>
+        <v>1.240991355058222</v>
       </c>
       <c r="G5">
-        <v>1109939.235679547</v>
+        <v>826132.1386680382</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.891504851698881</v>
+        <v>3.237240174271607</v>
       </c>
       <c r="C6">
-        <v>0.9729981028857823</v>
+        <v>0.932330145707291</v>
       </c>
       <c r="D6">
-        <v>2.39372710059472</v>
+        <v>2.978576096272319</v>
       </c>
       <c r="E6">
-        <v>0.03649580168344881</v>
+        <v>0.03599955668762465</v>
       </c>
       <c r="F6">
-        <v>1.062242091054249</v>
+        <v>0.9589172850129621</v>
       </c>
       <c r="G6">
-        <v>1368759.792434205</v>
+        <v>1543836.230315105</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.080326867993251</v>
+        <v>3.480805941076849</v>
       </c>
       <c r="C7">
-        <v>0.968451182351029</v>
+        <v>1.255746356703224</v>
       </c>
       <c r="D7">
-        <v>2.618394878626439</v>
+        <v>1.718171882785812</v>
       </c>
       <c r="E7">
-        <v>0.03078054385145433</v>
+        <v>0.05302549570556477</v>
       </c>
       <c r="F7">
-        <v>1.210709324954552</v>
+        <v>1.39809376010092</v>
       </c>
       <c r="G7">
-        <v>1222477.547240017</v>
+        <v>1349998.412947748</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.476788371240906</v>
+        <v>4.790615670461328</v>
       </c>
       <c r="C8">
-        <v>1.094792459475578</v>
+        <v>1.067380069752585</v>
       </c>
       <c r="D8">
-        <v>1.617072224901826</v>
+        <v>2.342708445062101</v>
       </c>
       <c r="E8">
-        <v>0.02979465750174086</v>
+        <v>0.05770124572620102</v>
       </c>
       <c r="F8">
-        <v>1.293207825605725</v>
+        <v>1.268921523158592</v>
       </c>
       <c r="G8">
-        <v>1821760.328008131</v>
+        <v>1626562.868153082</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.959017273545312</v>
+        <v>2.557751260536982</v>
       </c>
       <c r="C9">
-        <v>1.121010510128714</v>
+        <v>0.9274679421003074</v>
       </c>
       <c r="D9">
-        <v>1.954210471091226</v>
+        <v>1.88369253309245</v>
       </c>
       <c r="E9">
-        <v>0.03434150591364928</v>
+        <v>0.03518552226458444</v>
       </c>
       <c r="F9">
-        <v>1.281670970810578</v>
+        <v>1.223905871274419</v>
       </c>
       <c r="G9">
-        <v>1165193.825929748</v>
+        <v>1095824.05866163</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.630013303748567</v>
+        <v>3.270014695333212</v>
       </c>
       <c r="C10">
-        <v>1.180801992698438</v>
+        <v>0.9997948985906531</v>
       </c>
       <c r="D10">
-        <v>1.253219859988075</v>
+        <v>2.211587898031479</v>
       </c>
       <c r="E10">
-        <v>0.0313468167053841</v>
+        <v>0.04377598855170892</v>
       </c>
       <c r="F10">
-        <v>1.394775062693041</v>
+        <v>1.112438178997282</v>
       </c>
       <c r="G10">
-        <v>990282.2972754206</v>
+        <v>1362082.178949627</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.634859902513476</v>
+        <v>4.269123341847521</v>
       </c>
       <c r="C11">
-        <v>1.254225554225807</v>
+        <v>1.100115127804156</v>
       </c>
       <c r="D11">
-        <v>2.961587087965453</v>
+        <v>1.444148190924045</v>
       </c>
       <c r="E11">
-        <v>0.04914944988326257</v>
+        <v>0.03019243597594719</v>
       </c>
       <c r="F11">
-        <v>1.428513303825162</v>
+        <v>1.144374921294143</v>
       </c>
       <c r="G11">
-        <v>1423401.131755159</v>
+        <v>1781919.306661176</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.831875798515285</v>
+        <v>4.23270843794834</v>
       </c>
       <c r="C12">
-        <v>1.162103248633399</v>
+        <v>1.118187346387962</v>
       </c>
       <c r="D12">
-        <v>2.317263190038146</v>
+        <v>2.58896530032026</v>
       </c>
       <c r="E12">
-        <v>0.04698422900502208</v>
+        <v>0.0450785138258057</v>
       </c>
       <c r="F12">
-        <v>1.488457300815588</v>
+        <v>1.178497300160406</v>
       </c>
       <c r="G12">
-        <v>1239997.532581675</v>
+        <v>1828440.968026944</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.775539526438146</v>
+        <v>2.291122980415008</v>
       </c>
       <c r="C13">
-        <v>1.05531626570115</v>
+        <v>1.096541539295266</v>
       </c>
       <c r="D13">
-        <v>1.18589714277387</v>
+        <v>1.042867988572892</v>
       </c>
       <c r="E13">
-        <v>0.04850679774589823</v>
+        <v>0.05739545997528246</v>
       </c>
       <c r="F13">
-        <v>1.223982037294871</v>
+        <v>1.49805210368052</v>
       </c>
       <c r="G13">
-        <v>1514564.914359551</v>
+        <v>665241.6159408413</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.238536350527241</v>
+        <v>2.33431707823606</v>
       </c>
       <c r="C14">
-        <v>1.008829730825954</v>
+        <v>1.002389789682464</v>
       </c>
       <c r="D14">
-        <v>1.736755709461746</v>
+        <v>2.903748590610904</v>
       </c>
       <c r="E14">
-        <v>0.05611319035882188</v>
+        <v>0.04049341250278463</v>
       </c>
       <c r="F14">
-        <v>1.456822236203002</v>
+        <v>0.8035599071002326</v>
       </c>
       <c r="G14">
-        <v>1203258.48139512</v>
+        <v>1434682.856859833</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.731198858195331</v>
+        <v>3.660841561071397</v>
       </c>
       <c r="C15">
-        <v>0.9928221940787688</v>
+        <v>0.9877009757452672</v>
       </c>
       <c r="D15">
-        <v>1.938350348015033</v>
+        <v>1.603306039860646</v>
       </c>
       <c r="E15">
-        <v>0.05153535500558949</v>
+        <v>0.03064874734375912</v>
       </c>
       <c r="F15">
-        <v>1.095253556559313</v>
+        <v>1.323880673870582</v>
       </c>
       <c r="G15">
-        <v>1336617.979449916</v>
+        <v>1411972.064212999</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.643915880877984</v>
+        <v>2.451636522216529</v>
       </c>
       <c r="C16">
-        <v>1.075562609256588</v>
+        <v>1.092415732056172</v>
       </c>
       <c r="D16">
-        <v>1.123966990680906</v>
+        <v>2.423714932987213</v>
       </c>
       <c r="E16">
-        <v>0.03623500458103193</v>
+        <v>0.03943735539392598</v>
       </c>
       <c r="F16">
-        <v>1.165476738498227</v>
+        <v>1.451021935522895</v>
       </c>
       <c r="G16">
-        <v>1688418.000911726</v>
+        <v>1217167.07127652</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.969013363405544</v>
+        <v>4.423349371470097</v>
       </c>
       <c r="C17">
-        <v>0.9862630749056583</v>
+        <v>1.137158509306982</v>
       </c>
       <c r="D17">
-        <v>1.406831881708408</v>
+        <v>1.11594583584795</v>
       </c>
       <c r="E17">
-        <v>0.05172103481553381</v>
+        <v>0.03887087814113756</v>
       </c>
       <c r="F17">
-        <v>1.104674291173286</v>
+        <v>1.294397136964706</v>
       </c>
       <c r="G17">
-        <v>1279553.560553228</v>
+        <v>1621354.18027401</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.403803118819857</v>
+        <v>4.098518016088926</v>
       </c>
       <c r="C18">
-        <v>1.198968982847163</v>
+        <v>0.9564175540331216</v>
       </c>
       <c r="D18">
-        <v>1.600830931156265</v>
+        <v>2.138559111766205</v>
       </c>
       <c r="E18">
-        <v>0.05015049474061389</v>
+        <v>0.05375831086763082</v>
       </c>
       <c r="F18">
-        <v>0.8896180944441714</v>
+        <v>1.155510850609967</v>
       </c>
       <c r="G18">
-        <v>1584579.559154665</v>
+        <v>1357937.30080469</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.20080012159053</v>
+        <v>3.86201106098729</v>
       </c>
       <c r="C19">
-        <v>0.9958160175596119</v>
+        <v>0.952835309836049</v>
       </c>
       <c r="D19">
-        <v>2.011559068123975</v>
+        <v>2.081455430983878</v>
       </c>
       <c r="E19">
-        <v>0.02967150883984232</v>
+        <v>0.0329068847620886</v>
       </c>
       <c r="F19">
-        <v>1.307908863837597</v>
+        <v>0.8633726747447322</v>
       </c>
       <c r="G19">
-        <v>1156915.41207182</v>
+        <v>1627833.906766666</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.065715438578271</v>
+        <v>3.810087031539079</v>
       </c>
       <c r="C20">
-        <v>0.9620277109319433</v>
+        <v>1.064091813316135</v>
       </c>
       <c r="D20">
-        <v>2.729827929974289</v>
+        <v>1.429693858762369</v>
       </c>
       <c r="E20">
-        <v>0.0567517311977327</v>
+        <v>0.03813632292494689</v>
       </c>
       <c r="F20">
-        <v>0.8500271168892963</v>
+        <v>1.196729321742636</v>
       </c>
       <c r="G20">
-        <v>1361577.019757993</v>
+        <v>1468574.600501147</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.264597528615104</v>
+        <v>4.010185534678314</v>
       </c>
       <c r="C21">
-        <v>0.9445568416297734</v>
+        <v>1.148028886137185</v>
       </c>
       <c r="D21">
-        <v>1.055348508227611</v>
+        <v>1.192855954914708</v>
       </c>
       <c r="E21">
-        <v>0.03723917618910962</v>
+        <v>0.04742245717528222</v>
       </c>
       <c r="F21">
-        <v>0.9018428466159183</v>
+        <v>1.282961710132706</v>
       </c>
       <c r="G21">
-        <v>1227525.860233822</v>
+        <v>1412353.584091409</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.595041160548384</v>
+        <v>2.792923557367755</v>
       </c>
       <c r="C22">
-        <v>0.9559022873127789</v>
+        <v>0.9437275087832583</v>
       </c>
       <c r="D22">
-        <v>2.422180036024113</v>
+        <v>1.969943853248229</v>
       </c>
       <c r="E22">
-        <v>0.04037082419886158</v>
+        <v>0.05606628366190563</v>
       </c>
       <c r="F22">
-        <v>1.376973280817685</v>
+        <v>0.9635776685958669</v>
       </c>
       <c r="G22">
-        <v>1113545.264087807</v>
+        <v>1080088.98198008</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.305519108885188</v>
+        <v>3.347797801292577</v>
       </c>
       <c r="C23">
-        <v>1.06592711516997</v>
+        <v>1.047151465721535</v>
       </c>
       <c r="D23">
-        <v>2.10827376110348</v>
+        <v>2.780650835200804</v>
       </c>
       <c r="E23">
-        <v>0.03703923292090287</v>
+        <v>0.04696233129560957</v>
       </c>
       <c r="F23">
-        <v>1.002555973464298</v>
+        <v>1.368711071551561</v>
       </c>
       <c r="G23">
-        <v>1571324.28843547</v>
+        <v>1395410.645865363</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.196331062347927</v>
+        <v>3.740720848735842</v>
       </c>
       <c r="C24">
-        <v>1.14554055663765</v>
+        <v>1.043336767733652</v>
       </c>
       <c r="D24">
-        <v>1.851678255244603</v>
+        <v>1.776616951753554</v>
       </c>
       <c r="E24">
-        <v>0.05478616994021973</v>
+        <v>0.04098938351125743</v>
       </c>
       <c r="F24">
-        <v>1.419594894330009</v>
+        <v>1.075686776505112</v>
       </c>
       <c r="G24">
-        <v>1146114.143562303</v>
+        <v>1508560.130494964</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.584198601975787</v>
+        <v>4.055298952483512</v>
       </c>
       <c r="C25">
-        <v>1.243768016403493</v>
+        <v>1.230970541896475</v>
       </c>
       <c r="D25">
-        <v>2.693927990845202</v>
+        <v>1.479307808155122</v>
       </c>
       <c r="E25">
-        <v>0.05511840555723103</v>
+        <v>0.04616618714704333</v>
       </c>
       <c r="F25">
-        <v>0.833440755944817</v>
+        <v>0.9417434392537112</v>
       </c>
       <c r="G25">
-        <v>2269136.44966576</v>
+        <v>1815551.138526757</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.677733263731066</v>
+        <v>3.048009615668794</v>
       </c>
       <c r="C26">
-        <v>1.177785225222021</v>
+        <v>1.184687144175919</v>
       </c>
       <c r="D26">
-        <v>1.886164102331332</v>
+        <v>1.179387669071561</v>
       </c>
       <c r="E26">
-        <v>0.04737514668424266</v>
+        <v>0.0418986151698585</v>
       </c>
       <c r="F26">
-        <v>0.8624487508674676</v>
+        <v>0.9946353279060438</v>
       </c>
       <c r="G26">
-        <v>1167358.165856276</v>
+        <v>1403094.894463856</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.752155294966063</v>
+        <v>3.586773439827055</v>
       </c>
       <c r="C27">
-        <v>1.217813161309317</v>
+        <v>1.155223100591401</v>
       </c>
       <c r="D27">
-        <v>1.768420066342125</v>
+        <v>1.271422167105107</v>
       </c>
       <c r="E27">
-        <v>0.04770643033129344</v>
+        <v>0.05490885471019603</v>
       </c>
       <c r="F27">
-        <v>0.9457789222782272</v>
+        <v>1.469971988077609</v>
       </c>
       <c r="G27">
-        <v>1151426.187517874</v>
+        <v>1113090.482180069</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.791386139018604</v>
+        <v>1.969562341048898</v>
       </c>
       <c r="C28">
-        <v>1.242772767095076</v>
+        <v>1.026303241873742</v>
       </c>
       <c r="D28">
-        <v>1.080409155994936</v>
+        <v>2.113315644041137</v>
       </c>
       <c r="E28">
-        <v>0.04426826943601715</v>
+        <v>0.0570544189220349</v>
       </c>
       <c r="F28">
-        <v>1.269237741531585</v>
+        <v>1.065014450349072</v>
       </c>
       <c r="G28">
-        <v>1803840.249290485</v>
+        <v>934834.5986444888</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.446905473093305</v>
+        <v>3.895073800543059</v>
       </c>
       <c r="C29">
-        <v>1.202557192889159</v>
+        <v>0.9756806223289456</v>
       </c>
       <c r="D29">
-        <v>1.832920532862385</v>
+        <v>2.000784480751742</v>
       </c>
       <c r="E29">
-        <v>0.03341695088711297</v>
+        <v>0.05174472415344158</v>
       </c>
       <c r="F29">
-        <v>1.033751895996151</v>
+        <v>1.10463212079167</v>
       </c>
       <c r="G29">
-        <v>1483417.335112552</v>
+        <v>1358375.43299094</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.036744291294434</v>
+        <v>3.389546808687483</v>
       </c>
       <c r="C30">
-        <v>0.938464065239866</v>
+        <v>1.0098509194009</v>
       </c>
       <c r="D30">
-        <v>2.585491316069853</v>
+        <v>1.925216410426914</v>
       </c>
       <c r="E30">
-        <v>0.03843732197397236</v>
+        <v>0.05074191812243928</v>
       </c>
       <c r="F30">
-        <v>1.018802362852953</v>
+        <v>1.23448995343157</v>
       </c>
       <c r="G30">
-        <v>1627897.440345106</v>
+        <v>1209188.277091476</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.27813222098428</v>
+        <v>3.01964689457236</v>
       </c>
       <c r="C31">
-        <v>1.158264180349354</v>
+        <v>1.228996689330853</v>
       </c>
       <c r="D31">
-        <v>1.174575100647518</v>
+        <v>2.619231479721433</v>
       </c>
       <c r="E31">
-        <v>0.05032766690655519</v>
+        <v>0.03184513237680263</v>
       </c>
       <c r="F31">
-        <v>1.404078405473763</v>
+        <v>1.192131531328073</v>
       </c>
       <c r="G31">
-        <v>851618.4499222848</v>
+        <v>1833274.934018513</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.924596822279598</v>
+        <v>4.134169047094437</v>
       </c>
       <c r="C32">
-        <v>1.151057040540039</v>
+        <v>0.9650932580540326</v>
       </c>
       <c r="D32">
-        <v>2.043654300506146</v>
+        <v>2.562648557190441</v>
       </c>
       <c r="E32">
-        <v>0.05080157509678358</v>
+        <v>0.03682705605255818</v>
       </c>
       <c r="F32">
-        <v>1.349294921446679</v>
+        <v>0.8725220914754779</v>
       </c>
       <c r="G32">
-        <v>1210905.380615125</v>
+        <v>1769462.415865263</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.78652977920182</v>
+        <v>3.418433592229293</v>
       </c>
       <c r="C33">
-        <v>1.04172567998288</v>
+        <v>1.082294189305313</v>
       </c>
       <c r="D33">
-        <v>2.175680820362574</v>
+        <v>1.52533304592188</v>
       </c>
       <c r="E33">
-        <v>0.04203113397657853</v>
+        <v>0.04957228445777909</v>
       </c>
       <c r="F33">
-        <v>0.987812142159744</v>
+        <v>1.207856460244626</v>
       </c>
       <c r="G33">
-        <v>1108016.75986705</v>
+        <v>1252066.529783759</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.298737536217529</v>
+        <v>1.908559452945651</v>
       </c>
       <c r="C34">
-        <v>1.049369285552649</v>
+        <v>1.152661245859462</v>
       </c>
       <c r="D34">
-        <v>1.77808437865063</v>
+        <v>2.943768084475039</v>
       </c>
       <c r="E34">
-        <v>0.03419894488628848</v>
+        <v>0.03246574865688261</v>
       </c>
       <c r="F34">
-        <v>1.146847078841541</v>
+        <v>0.9009819390371576</v>
       </c>
       <c r="G34">
-        <v>1723240.163870185</v>
+        <v>1575846.030602373</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.490119961852313</v>
+        <v>2.773899300897045</v>
       </c>
       <c r="C35">
-        <v>1.210022231702284</v>
+        <v>1.224483603981613</v>
       </c>
       <c r="D35">
-        <v>2.917553423886061</v>
+        <v>2.645398572277343</v>
       </c>
       <c r="E35">
-        <v>0.05265975156607604</v>
+        <v>0.02950512410051894</v>
       </c>
       <c r="F35">
-        <v>0.8439618777580166</v>
+        <v>0.8456455339787342</v>
       </c>
       <c r="G35">
-        <v>2251426.727510915</v>
+        <v>1930430.998020161</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.938842728317554</v>
+        <v>4.182783998945968</v>
       </c>
       <c r="C36">
-        <v>0.9523455952197531</v>
+        <v>1.115496659436823</v>
       </c>
       <c r="D36">
-        <v>2.837146723025363</v>
+        <v>1.409661488933693</v>
       </c>
       <c r="E36">
-        <v>0.02908640143486503</v>
+        <v>0.0512017289030602</v>
       </c>
       <c r="F36">
-        <v>1.014597508918906</v>
+        <v>0.9799375007170104</v>
       </c>
       <c r="G36">
-        <v>1287122.550818305</v>
+        <v>1587411.197319053</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.40717700761974</v>
+        <v>4.477061805819634</v>
       </c>
       <c r="C37">
-        <v>1.108675691657824</v>
+        <v>0.990526716198996</v>
       </c>
       <c r="D37">
-        <v>2.869357062344017</v>
+        <v>1.489330327443589</v>
       </c>
       <c r="E37">
-        <v>0.03347663525265027</v>
+        <v>0.04680806732473933</v>
       </c>
       <c r="F37">
-        <v>1.04639749199071</v>
+        <v>1.351404768838902</v>
       </c>
       <c r="G37">
-        <v>2143773.104074698</v>
+        <v>1365838.128332073</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.691502387214779</v>
+        <v>4.824686171229375</v>
       </c>
       <c r="C38">
-        <v>0.9317857963607694</v>
+        <v>1.021896935832465</v>
       </c>
       <c r="D38">
-        <v>2.942402314913747</v>
+        <v>2.184596006270093</v>
       </c>
       <c r="E38">
-        <v>0.03301915414919655</v>
+        <v>0.03559294297805662</v>
       </c>
       <c r="F38">
-        <v>0.8143635982099395</v>
+        <v>0.9209249222134321</v>
       </c>
       <c r="G38">
-        <v>1483470.681806854</v>
+        <v>1973828.285665578</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.321479204770401</v>
+        <v>2.104084438568399</v>
       </c>
       <c r="C39">
-        <v>0.9662904095021402</v>
+        <v>1.167342317507593</v>
       </c>
       <c r="D39">
-        <v>1.343048075718665</v>
+        <v>1.713160807866347</v>
       </c>
       <c r="E39">
-        <v>0.04322759967193652</v>
+        <v>0.04307400594996556</v>
       </c>
       <c r="F39">
-        <v>1.472157955001827</v>
+        <v>1.334132066504693</v>
       </c>
       <c r="G39">
-        <v>803814.6542320536</v>
+        <v>1052040.955566993</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.86297548907088</v>
+        <v>4.502222871204991</v>
       </c>
       <c r="C40">
-        <v>1.019998696471468</v>
+        <v>1.236371369768283</v>
       </c>
       <c r="D40">
-        <v>1.434115897247151</v>
+        <v>1.323845014000128</v>
       </c>
       <c r="E40">
-        <v>0.05130196287812955</v>
+        <v>0.0391574727652895</v>
       </c>
       <c r="F40">
-        <v>1.254755702138259</v>
+        <v>1.251016973155541</v>
       </c>
       <c r="G40">
-        <v>1228984.043725242</v>
+        <v>1854872.582100677</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.823625800883759</v>
+        <v>2.852211300877156</v>
       </c>
       <c r="C41">
-        <v>1.025864765724565</v>
+        <v>0.9420895121745509</v>
       </c>
       <c r="D41">
-        <v>1.811239606838467</v>
+        <v>1.085873210628077</v>
       </c>
       <c r="E41">
-        <v>0.03984035569838879</v>
+        <v>0.03997085672062966</v>
       </c>
       <c r="F41">
-        <v>1.387444781933215</v>
+        <v>1.049645593287695</v>
       </c>
       <c r="G41">
-        <v>1653575.118770631</v>
+        <v>1051510.922885102</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.934561764355688</v>
+        <v>3.305153462808955</v>
       </c>
       <c r="C42">
-        <v>1.126669058095914</v>
+        <v>1.090045577876524</v>
       </c>
       <c r="D42">
-        <v>1.023183845037681</v>
+        <v>2.316196645899327</v>
       </c>
       <c r="E42">
-        <v>0.04669332434086697</v>
+        <v>0.04903455770977015</v>
       </c>
       <c r="F42">
-        <v>0.8706794666351723</v>
+        <v>0.8970042038370979</v>
       </c>
       <c r="G42">
-        <v>1561627.354151281</v>
+        <v>1570668.284235904</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.326655377737326</v>
+        <v>2.013008222193018</v>
       </c>
       <c r="C43">
-        <v>1.015198864692877</v>
+        <v>1.029639663759734</v>
       </c>
       <c r="D43">
-        <v>1.472548054634208</v>
+        <v>1.232359544102114</v>
       </c>
       <c r="E43">
-        <v>0.04417891850721698</v>
+        <v>0.04449298417224216</v>
       </c>
       <c r="F43">
-        <v>0.8966645135395436</v>
+        <v>0.9737820828779091</v>
       </c>
       <c r="G43">
-        <v>1100450.799599962</v>
+        <v>955609.3991674827</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.150909635657616</v>
+        <v>2.525744073192259</v>
       </c>
       <c r="C44">
-        <v>1.114130000560394</v>
+        <v>1.140618472426871</v>
       </c>
       <c r="D44">
-        <v>2.465441129145677</v>
+        <v>1.851922120840797</v>
       </c>
       <c r="E44">
-        <v>0.03178866455214346</v>
+        <v>0.04829073063266227</v>
       </c>
       <c r="F44">
-        <v>1.259838969221493</v>
+        <v>1.009174433409342</v>
       </c>
       <c r="G44">
-        <v>1640841.719419922</v>
+        <v>1266464.625016056</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.39074697463616</v>
+        <v>2.206645379884197</v>
       </c>
       <c r="C45">
-        <v>1.218296330501465</v>
+        <v>1.175465796862994</v>
       </c>
       <c r="D45">
-        <v>2.661768425944557</v>
+        <v>1.649959942645976</v>
       </c>
       <c r="E45">
-        <v>0.05757227004354375</v>
+        <v>0.03622166702101051</v>
       </c>
       <c r="F45">
-        <v>1.153841943709246</v>
+        <v>0.9161066608091257</v>
       </c>
       <c r="G45">
-        <v>1286984.470045846</v>
+        <v>1356947.196059133</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.870020354807852</v>
+        <v>2.259858530313794</v>
       </c>
       <c r="C46">
-        <v>0.9990614677879776</v>
+        <v>1.013331971252932</v>
       </c>
       <c r="D46">
-        <v>1.994521096017002</v>
+        <v>2.814807990797936</v>
       </c>
       <c r="E46">
-        <v>0.0387931667173167</v>
+        <v>0.0334089083227784</v>
       </c>
       <c r="F46">
-        <v>1.300167634613438</v>
+        <v>1.083343321435135</v>
       </c>
       <c r="G46">
-        <v>961580.5699506473</v>
+        <v>1374113.553592963</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.542748570016455</v>
+        <v>2.894703734426935</v>
       </c>
       <c r="C47">
-        <v>1.235959336086357</v>
+        <v>0.9488576614479262</v>
       </c>
       <c r="D47">
-        <v>2.188109540762405</v>
+        <v>2.484374922386621</v>
       </c>
       <c r="E47">
-        <v>0.04268644364893062</v>
+        <v>0.04410039570943335</v>
       </c>
       <c r="F47">
-        <v>0.9919207313003743</v>
+        <v>1.171295413999542</v>
       </c>
       <c r="G47">
-        <v>2166083.636260481</v>
+        <v>1224040.835387737</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.461894665627558</v>
+        <v>1.914442948081223</v>
       </c>
       <c r="C48">
-        <v>1.09679236136442</v>
+        <v>0.9939036244276083</v>
       </c>
       <c r="D48">
-        <v>2.543359108422238</v>
+        <v>1.844257045069574</v>
       </c>
       <c r="E48">
-        <v>0.03600271775394445</v>
+        <v>0.03420637934723511</v>
       </c>
       <c r="F48">
-        <v>0.8769965496384624</v>
+        <v>0.8855153806485069</v>
       </c>
       <c r="G48">
-        <v>1821387.204304446</v>
+        <v>1142518.416221528</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.110810182329596</v>
+        <v>3.122319043438667</v>
       </c>
       <c r="C49">
-        <v>0.9812464155503284</v>
+        <v>1.178456205733706</v>
       </c>
       <c r="D49">
-        <v>1.288126719028618</v>
+        <v>2.059095945586763</v>
       </c>
       <c r="E49">
-        <v>0.04540516904399487</v>
+        <v>0.05636176175848258</v>
       </c>
       <c r="F49">
-        <v>1.318647296890021</v>
+        <v>1.386448636766481</v>
       </c>
       <c r="G49">
-        <v>1258666.853924086</v>
+        <v>1198504.765014869</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.728436998432988</v>
+        <v>4.771343153519233</v>
       </c>
       <c r="C50">
-        <v>1.196000500572114</v>
+        <v>1.059149341629423</v>
       </c>
       <c r="D50">
-        <v>2.975704765660101</v>
+        <v>2.721905950172494</v>
       </c>
       <c r="E50">
-        <v>0.03937399878504148</v>
+        <v>0.03467214334130533</v>
       </c>
       <c r="F50">
-        <v>1.239517706251085</v>
+        <v>1.347063203131619</v>
       </c>
       <c r="G50">
-        <v>2256368.719738069</v>
+        <v>1980898.754943283</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.128894865522747</v>
+        <v>4.68967573776578</v>
       </c>
       <c r="C51">
-        <v>1.131561651140776</v>
+        <v>1.143193926843005</v>
       </c>
       <c r="D51">
-        <v>1.276947129998778</v>
+        <v>2.168164570889686</v>
       </c>
       <c r="E51">
-        <v>0.03111225176979557</v>
+        <v>0.05321037735449113</v>
       </c>
       <c r="F51">
-        <v>1.216842683014201</v>
+        <v>0.8326259815283259</v>
       </c>
       <c r="G51">
-        <v>1714036.424396244</v>
+        <v>2018160.066401205</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.178187943610641</v>
+        <v>3.958455059803739</v>
       </c>
       <c r="C52">
-        <v>1.044491045115348</v>
+        <v>0.9772926822832555</v>
       </c>
       <c r="D52">
-        <v>1.663244602091058</v>
+        <v>2.844193089413115</v>
       </c>
       <c r="E52">
-        <v>0.03026213585435717</v>
+        <v>0.05543754695716759</v>
       </c>
       <c r="F52">
-        <v>1.453935383719238</v>
+        <v>1.034296490079325</v>
       </c>
       <c r="G52">
-        <v>1605090.327090717</v>
+        <v>1534776.060547313</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.662780951580813</v>
+        <v>4.605009053608983</v>
       </c>
       <c r="C53">
-        <v>1.233839380907795</v>
+        <v>1.24166807543569</v>
       </c>
       <c r="D53">
-        <v>2.276291083730853</v>
+        <v>2.846530690322123</v>
       </c>
       <c r="E53">
-        <v>0.04527069903386598</v>
+        <v>0.03672903133790568</v>
       </c>
       <c r="F53">
-        <v>1.417118496493896</v>
+        <v>1.311455521447856</v>
       </c>
       <c r="G53">
-        <v>1624231.184517375</v>
+        <v>2279438.754496783</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.022636800409315</v>
+        <v>1.7574770559128</v>
       </c>
       <c r="C54">
-        <v>1.250834413744043</v>
+        <v>0.9692135879285644</v>
       </c>
       <c r="D54">
-        <v>2.097014820498222</v>
+        <v>2.754015030148283</v>
       </c>
       <c r="E54">
-        <v>0.05234465388796249</v>
+        <v>0.04908911716871205</v>
       </c>
       <c r="F54">
-        <v>1.128456712472152</v>
+        <v>1.488396568485707</v>
       </c>
       <c r="G54">
-        <v>1170293.488186704</v>
+        <v>840860.07793463</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.235017678616433</v>
+        <v>3.088890672950287</v>
       </c>
       <c r="C55">
-        <v>1.189172193150488</v>
+        <v>1.126612427780511</v>
       </c>
       <c r="D55">
-        <v>1.531365555634198</v>
+        <v>2.96450041083609</v>
       </c>
       <c r="E55">
-        <v>0.05634021902899879</v>
+        <v>0.04270080807258697</v>
       </c>
       <c r="F55">
-        <v>1.169166136060802</v>
+        <v>1.005822209240236</v>
       </c>
       <c r="G55">
-        <v>1257183.524166982</v>
+        <v>1715981.688929016</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4.665314781128439</v>
+        <v>2.964860966728192</v>
       </c>
       <c r="C56">
-        <v>1.035202436154933</v>
+        <v>1.01801490357682</v>
       </c>
       <c r="D56">
-        <v>2.745346576617314</v>
+        <v>2.258712132546069</v>
       </c>
       <c r="E56">
-        <v>0.04312088862290284</v>
+        <v>0.03231864609346646</v>
       </c>
       <c r="F56">
-        <v>1.476081859767216</v>
+        <v>1.164899779403704</v>
       </c>
       <c r="G56">
-        <v>1725877.134303164</v>
+        <v>1436675.553518284</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.07386796751054</v>
+        <v>4.389495758910027</v>
       </c>
       <c r="C57">
-        <v>1.165659657682756</v>
+        <v>1.05184516818172</v>
       </c>
       <c r="D57">
-        <v>2.676710831608482</v>
+        <v>2.715380190640551</v>
       </c>
       <c r="E57">
-        <v>0.04351175442276452</v>
+        <v>0.04337570356533413</v>
       </c>
       <c r="F57">
-        <v>0.9149131526507901</v>
+        <v>1.123757263579781</v>
       </c>
       <c r="G57">
-        <v>1744806.694014899</v>
+        <v>1838216.779897937</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.437974169754498</v>
+        <v>3.617636423270323</v>
       </c>
       <c r="C58">
-        <v>1.071468898045748</v>
+        <v>1.206924347633936</v>
       </c>
       <c r="D58">
-        <v>2.797905611939322</v>
+        <v>1.97550673352753</v>
       </c>
       <c r="E58">
-        <v>0.03458881703538568</v>
+        <v>0.03771007045723387</v>
       </c>
       <c r="F58">
-        <v>1.181270037896721</v>
+        <v>1.02778197821941</v>
       </c>
       <c r="G58">
-        <v>1717453.100317591</v>
+        <v>1823077.230267393</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.545674810066445</v>
+        <v>3.926175605320886</v>
       </c>
       <c r="C59">
-        <v>1.222580100712492</v>
+        <v>1.192442140342963</v>
       </c>
       <c r="D59">
-        <v>1.575881084281456</v>
+        <v>2.254240728366827</v>
       </c>
       <c r="E59">
-        <v>0.05372596641418501</v>
+        <v>0.05671755014421195</v>
       </c>
       <c r="F59">
-        <v>1.359660363705383</v>
+        <v>1.08891793358987</v>
       </c>
       <c r="G59">
-        <v>1030333.184104614</v>
+        <v>1672006.687122362</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.545988802544793</v>
+        <v>2.159152398316766</v>
       </c>
       <c r="C60">
-        <v>1.103194394490335</v>
+        <v>1.246562887331543</v>
       </c>
       <c r="D60">
-        <v>1.506734670163049</v>
+        <v>2.607187500288827</v>
       </c>
       <c r="E60">
-        <v>0.04873818506174789</v>
+        <v>0.0478736178709132</v>
       </c>
       <c r="F60">
-        <v>1.075732085940862</v>
+        <v>1.264147445850148</v>
       </c>
       <c r="G60">
-        <v>1388595.600541131</v>
+        <v>1303845.19194061</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.485985795102703</v>
+        <v>2.589074431929716</v>
       </c>
       <c r="C61">
-        <v>1.057588169084239</v>
+        <v>1.072685628718564</v>
       </c>
       <c r="D61">
-        <v>2.347954422157282</v>
+        <v>2.88399434494665</v>
       </c>
       <c r="E61">
-        <v>0.05787038651312738</v>
+        <v>0.05272634211428497</v>
       </c>
       <c r="F61">
-        <v>1.111051680016136</v>
+        <v>0.9465801589052515</v>
       </c>
       <c r="G61">
-        <v>1101592.144591966</v>
+        <v>1402732.552988229</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3.797996392770658</v>
+        <v>2.674207879048671</v>
       </c>
       <c r="C62">
-        <v>1.140019748277121</v>
+        <v>1.166332189091771</v>
       </c>
       <c r="D62">
-        <v>2.881256955676031</v>
+        <v>1.209538111226195</v>
       </c>
       <c r="E62">
-        <v>0.03809136609492111</v>
+        <v>0.03096958210263409</v>
       </c>
       <c r="F62">
-        <v>1.189112600608867</v>
+        <v>1.426516686625845</v>
       </c>
       <c r="G62">
-        <v>1897368.569358823</v>
+        <v>1251861.858841927</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.904355257048625</v>
+        <v>4.614971934513397</v>
       </c>
       <c r="C63">
-        <v>0.92808011402312</v>
+        <v>0.9366972243124407</v>
       </c>
       <c r="D63">
-        <v>2.230724609060022</v>
+        <v>2.527632598325797</v>
       </c>
       <c r="E63">
-        <v>0.05412654989717799</v>
+        <v>0.04833925211330255</v>
       </c>
       <c r="F63">
-        <v>1.368215278838389</v>
+        <v>1.477282159809478</v>
       </c>
       <c r="G63">
-        <v>1181179.9439416</v>
+        <v>1435949.969706193</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.616315244978463</v>
+        <v>2.721313767368305</v>
       </c>
       <c r="C64">
-        <v>1.002775924012227</v>
+        <v>1.195354498893834</v>
       </c>
       <c r="D64">
-        <v>1.360202718174331</v>
+        <v>1.371889827894758</v>
       </c>
       <c r="E64">
-        <v>0.05565574190190162</v>
+        <v>0.03130812045794092</v>
       </c>
       <c r="F64">
-        <v>1.495846206185018</v>
+        <v>0.8578566366728745</v>
       </c>
       <c r="G64">
-        <v>967651.7200524448</v>
+        <v>1549874.955936391</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.803444273821978</v>
+        <v>3.717865683147055</v>
       </c>
       <c r="C65">
-        <v>1.14832984923528</v>
+        <v>1.158624003862671</v>
       </c>
       <c r="D65">
-        <v>2.49312632712255</v>
+        <v>1.66704996144535</v>
       </c>
       <c r="E65">
-        <v>0.03243414953450596</v>
+        <v>0.04576294049195997</v>
       </c>
       <c r="F65">
-        <v>0.8252909466838307</v>
+        <v>1.136018736673962</v>
       </c>
       <c r="G65">
-        <v>1761634.10188266</v>
+        <v>1548574.952604875</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3.594973593403503</v>
+        <v>1.862789818511551</v>
       </c>
       <c r="C66">
-        <v>1.081041269407454</v>
+        <v>1.037995347082263</v>
       </c>
       <c r="D66">
-        <v>2.059894392558848</v>
+        <v>2.678587678981467</v>
       </c>
       <c r="E66">
-        <v>0.04158702231131062</v>
+        <v>0.05221091155779395</v>
       </c>
       <c r="F66">
-        <v>1.199629238669979</v>
+        <v>0.8261863885313034</v>
       </c>
       <c r="G66">
-        <v>1516425.83165788</v>
+        <v>1203036.847369338</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.507439813281378</v>
+        <v>3.535930824020811</v>
       </c>
       <c r="C67">
-        <v>1.167895484400194</v>
+        <v>1.22025235075055</v>
       </c>
       <c r="D67">
-        <v>2.515223779409579</v>
+        <v>2.044762483674399</v>
       </c>
       <c r="E67">
-        <v>0.03217225913427899</v>
+        <v>0.0501351535841405</v>
       </c>
       <c r="F67">
-        <v>0.9211255399296416</v>
+        <v>0.8419340907683265</v>
       </c>
       <c r="G67">
-        <v>1671960.869764618</v>
+        <v>1788814.835336956</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.719993439003505</v>
+        <v>2.417493209059367</v>
       </c>
       <c r="C68">
-        <v>1.104395200518699</v>
+        <v>1.078552520479091</v>
       </c>
       <c r="D68">
-        <v>1.561841095960352</v>
+        <v>2.49548219341998</v>
       </c>
       <c r="E68">
-        <v>0.05350676575086902</v>
+        <v>0.04465267644202121</v>
       </c>
       <c r="F68">
-        <v>1.443328218058642</v>
+        <v>1.118939155617497</v>
       </c>
       <c r="G68">
-        <v>695430.4746597802</v>
+        <v>1284913.800185251</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2.228741726705636</v>
+        <v>1.625352016926189</v>
       </c>
       <c r="C69">
-        <v>1.090598117801148</v>
+        <v>1.108968363369243</v>
       </c>
       <c r="D69">
-        <v>2.13603007073713</v>
+        <v>1.58610037492311</v>
       </c>
       <c r="E69">
-        <v>0.04077097886500235</v>
+        <v>0.02912849989171796</v>
       </c>
       <c r="F69">
-        <v>0.9737934203060276</v>
+        <v>1.015772805339061</v>
       </c>
       <c r="G69">
-        <v>1289808.674745163</v>
+        <v>1151535.712319612</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1984,22 +1984,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.700633065100432</v>
+        <v>3.173590288542637</v>
       </c>
       <c r="C70">
-        <v>0.9483223673253838</v>
+        <v>1.251360153028613</v>
       </c>
       <c r="D70">
-        <v>2.615371297436075</v>
+        <v>1.558877563613875</v>
       </c>
       <c r="E70">
-        <v>0.0349571152618743</v>
+        <v>0.04537365522465206</v>
       </c>
       <c r="F70">
-        <v>0.9577749079836968</v>
+        <v>1.461049364190886</v>
       </c>
       <c r="G70">
-        <v>1382820.887814558</v>
+        <v>1306088.387239904</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2007,22 +2007,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.074316990573248</v>
+        <v>2.054141416850138</v>
       </c>
       <c r="C71">
-        <v>1.062519511295124</v>
+        <v>1.181196866636903</v>
       </c>
       <c r="D71">
-        <v>2.282412473848311</v>
+        <v>2.439223601341661</v>
       </c>
       <c r="E71">
-        <v>0.04588756416991822</v>
+        <v>0.03362312427611006</v>
       </c>
       <c r="F71">
-        <v>1.244965864717042</v>
+        <v>1.376048529886636</v>
       </c>
       <c r="G71">
-        <v>1061288.837290368</v>
+        <v>1333951.134714737</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2030,22 +2030,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.751897508083918</v>
+        <v>2.651168772285881</v>
       </c>
       <c r="C72">
-        <v>1.083915904761708</v>
+        <v>1.213061678381902</v>
       </c>
       <c r="D72">
-        <v>1.670726072680184</v>
+        <v>2.299522331824742</v>
       </c>
       <c r="E72">
-        <v>0.05294736171351815</v>
+        <v>0.04067644142160409</v>
       </c>
       <c r="F72">
-        <v>1.053859191587981</v>
+        <v>1.414667258459358</v>
       </c>
       <c r="G72">
-        <v>1151057.802530224</v>
+        <v>1378719.001167013</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2053,22 +2053,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.858843333567626</v>
+        <v>2.408110414251819</v>
       </c>
       <c r="C73">
-        <v>1.137305053147939</v>
+        <v>1.199950458370757</v>
       </c>
       <c r="D73">
-        <v>2.237011267724812</v>
+        <v>1.336862277161439</v>
       </c>
       <c r="E73">
-        <v>0.03941854924807352</v>
+        <v>0.05398364449875939</v>
       </c>
       <c r="F73">
-        <v>1.079663280774869</v>
+        <v>1.214155269392727</v>
       </c>
       <c r="G73">
-        <v>1230475.607846111</v>
+        <v>1000735.529588578</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2076,22 +2076,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.025152297791906</v>
+        <v>4.341602292865621</v>
       </c>
       <c r="C74">
-        <v>1.205446413661005</v>
+        <v>1.123174989507446</v>
       </c>
       <c r="D74">
-        <v>2.367092031472462</v>
+        <v>1.024919067609412</v>
       </c>
       <c r="E74">
-        <v>0.05438247490162877</v>
+        <v>0.05043740366454291</v>
       </c>
       <c r="F74">
-        <v>1.117843337572775</v>
+        <v>1.358426011384473</v>
       </c>
       <c r="G74">
-        <v>1758611.982757078</v>
+        <v>1354791.116257564</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2099,22 +2099,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3.337974946879131</v>
+        <v>4.547210757194565</v>
       </c>
       <c r="C75">
-        <v>1.173532984026998</v>
+        <v>1.215249238966792</v>
       </c>
       <c r="D75">
-        <v>1.038649244456515</v>
+        <v>1.63861501829444</v>
       </c>
       <c r="E75">
-        <v>0.04170293819389649</v>
+        <v>0.0373336248147386</v>
       </c>
       <c r="F75">
-        <v>0.8056323792213035</v>
+        <v>1.057486693411494</v>
       </c>
       <c r="G75">
-        <v>1542682.419338657</v>
+        <v>2036949.727154486</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2122,22 +2122,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.200049173246912</v>
+        <v>1.806031172093837</v>
       </c>
       <c r="C76">
-        <v>1.031198086604753</v>
+        <v>1.076589967100471</v>
       </c>
       <c r="D76">
-        <v>1.694056514799984</v>
+        <v>1.06789915182435</v>
       </c>
       <c r="E76">
-        <v>0.03789211352691218</v>
+        <v>0.0386253616297773</v>
       </c>
       <c r="F76">
-        <v>1.3467515224527</v>
+        <v>0.8100398500060192</v>
       </c>
       <c r="G76">
-        <v>1519658.950439206</v>
+        <v>1043526.227540585</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2145,22 +2145,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.320170427564463</v>
+        <v>4.315978141543811</v>
       </c>
       <c r="C77">
-        <v>1.014230260647662</v>
+        <v>1.203408930991971</v>
       </c>
       <c r="D77">
-        <v>2.443252782382395</v>
+        <v>1.28210008401311</v>
       </c>
       <c r="E77">
-        <v>0.04643234356111392</v>
+        <v>0.04159785089238293</v>
       </c>
       <c r="F77">
-        <v>1.029201637388245</v>
+        <v>1.317488027994958</v>
       </c>
       <c r="G77">
-        <v>1710126.541357793</v>
+        <v>1665790.784658892</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2168,22 +2168,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2.141406677869401</v>
+        <v>2.925248024758805</v>
       </c>
       <c r="C78">
-        <v>1.119239000290919</v>
+        <v>1.032173267367885</v>
       </c>
       <c r="D78">
-        <v>1.152417619953567</v>
+        <v>1.145004642323767</v>
       </c>
       <c r="E78">
-        <v>0.04828669839395662</v>
+        <v>0.02982040341504594</v>
       </c>
       <c r="F78">
-        <v>1.335608137639222</v>
+        <v>0.9327104296907226</v>
       </c>
       <c r="G78">
-        <v>841651.9915379904</v>
+        <v>1335613.242274549</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2191,22 +2191,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2.950040969723289</v>
+        <v>1.702195630708788</v>
       </c>
       <c r="C79">
-        <v>1.185193134215508</v>
+        <v>1.107133712634808</v>
       </c>
       <c r="D79">
-        <v>2.769856223460229</v>
+        <v>2.376543572009307</v>
       </c>
       <c r="E79">
-        <v>0.04945613660018502</v>
+        <v>0.04202812141910969</v>
       </c>
       <c r="F79">
-        <v>0.9391027679607047</v>
+        <v>1.285493538669457</v>
       </c>
       <c r="G79">
-        <v>1674196.347652816</v>
+        <v>1059871.491348672</v>
       </c>
     </row>
   </sheetData>
